--- a/advanced/Workshop sheet.xlsx
+++ b/advanced/Workshop sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\UST\Batch1_Apr2023\advanced\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4B3A20-B2AC-49B5-B9DA-14CC63087EC6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{620CC7E1-61ED-42F1-9FF6-9671FC314445}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
